--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/72_CsvAdvancedFeatures.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/72_CsvAdvancedFeatures.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV Advanced" sheetId="1" r:id="Rfb4d0bab0ad7493b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV Advanced" sheetId="1" r:id="R07234bf04dd54699"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/72_CsvAdvancedFeatures.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/72_CsvAdvancedFeatures.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV Advanced" sheetId="1" r:id="R07234bf04dd54699"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV Advanced" sheetId="1" r:id="R1a01a1f9bf0743ea"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -132,7 +132,7 @@
       <x:c r="A2" s="2" t="str">
         <x:v>Simple text</x:v>
       </x:c>
-      <x:c r="B2" s="2" t="str">
+      <x:c r="B2" s="2" t="n">
         <x:v>275.0</x:v>
       </x:c>
       <x:c r="C2" s="2" t="str">
@@ -174,7 +174,7 @@
       <x:c r="A5" s="2" t="str">
         <x:v>Text with "quotes"</x:v>
       </x:c>
-      <x:c r="B5" s="2" t="str">
+      <x:c r="B5" s="2" t="n">
         <x:v>143.71</x:v>
       </x:c>
       <x:c r="C5" s="2" t="str">
@@ -188,7 +188,7 @@
       <x:c r="A6" s="2" t="str">
         <x:v>Text with "quotes"</x:v>
       </x:c>
-      <x:c r="B6" s="2" t="str">
+      <x:c r="B6" s="2" t="n">
         <x:v>11.65</x:v>
       </x:c>
       <x:c r="C6" s="2" t="str">
@@ -202,7 +202,7 @@
       <x:c r="A7" s="2" t="str">
         <x:v>Plain</x:v>
       </x:c>
-      <x:c r="B7" s="2" t="str">
+      <x:c r="B7" s="2" t="n">
         <x:v>383.82</x:v>
       </x:c>
       <x:c r="C7" s="4" t="str">
@@ -230,7 +230,7 @@
       <x:c r="A9" s="2" t="str">
         <x:v>Text with "quotes"</x:v>
       </x:c>
-      <x:c r="B9" s="2" t="str">
+      <x:c r="B9" s="2" t="n">
         <x:v>134.99</x:v>
       </x:c>
       <x:c r="C9" s="4" t="str">
@@ -244,7 +244,7 @@
       <x:c r="A10" s="2" t="str">
         <x:v>"Quoted" at start</x:v>
       </x:c>
-      <x:c r="B10" s="2" t="str">
+      <x:c r="B10" s="2" t="n">
         <x:v>577.67</x:v>
       </x:c>
       <x:c r="C10" s="2" t="str">
@@ -272,7 +272,7 @@
       <x:c r="A12" s="2" t="str">
         <x:v>Ends with quote"</x:v>
       </x:c>
-      <x:c r="B12" s="2" t="str">
+      <x:c r="B12" s="2" t="n">
         <x:v>214.79</x:v>
       </x:c>
       <x:c r="C12" s="2" t="str">
@@ -300,7 +300,7 @@
       <x:c r="A14" s="2" t="str">
         <x:v>Comma, then "quote"</x:v>
       </x:c>
-      <x:c r="B14" s="2" t="str">
+      <x:c r="B14" s="2" t="n">
         <x:v>671.79</x:v>
       </x:c>
       <x:c r="C14" s="2" t="str">
@@ -314,7 +314,7 @@
       <x:c r="A15" s="2" t="str">
         <x:v>Simple text</x:v>
       </x:c>
-      <x:c r="B15" s="2" t="str">
+      <x:c r="B15" s="2" t="n">
         <x:v>848.87</x:v>
       </x:c>
       <x:c r="C15" s="4" t="str">
@@ -328,7 +328,7 @@
       <x:c r="A16" s="2" t="str">
         <x:v>Ends with quote"</x:v>
       </x:c>
-      <x:c r="B16" s="2" t="str">
+      <x:c r="B16" s="2" t="n">
         <x:v>661.49</x:v>
       </x:c>
       <x:c r="C16" s="4" t="str">
@@ -342,7 +342,7 @@
       <x:c r="A17" s="2" t="str">
         <x:v>Hello, world</x:v>
       </x:c>
-      <x:c r="B17" s="2" t="str">
+      <x:c r="B17" s="2" t="n">
         <x:v>558.66</x:v>
       </x:c>
       <x:c r="C17" s="4" t="str">
@@ -356,7 +356,7 @@
       <x:c r="A18" s="2" t="str">
         <x:v>"Quoted" at start</x:v>
       </x:c>
-      <x:c r="B18" s="2" t="str">
+      <x:c r="B18" s="2" t="n">
         <x:v>577.44</x:v>
       </x:c>
       <x:c r="C18" s="2" t="str">
@@ -370,7 +370,7 @@
       <x:c r="A19" s="2" t="str">
         <x:v>Mixed, "comma and quotes"</x:v>
       </x:c>
-      <x:c r="B19" s="2" t="str">
+      <x:c r="B19" s="2" t="n">
         <x:v>590.34</x:v>
       </x:c>
       <x:c r="C19" s="2" t="str">
@@ -384,7 +384,7 @@
       <x:c r="A20" s="2" t="str">
         <x:v>Hello, world</x:v>
       </x:c>
-      <x:c r="B20" s="2" t="str">
+      <x:c r="B20" s="2" t="n">
         <x:v>997.58</x:v>
       </x:c>
       <x:c r="C20" s="2" t="str">
@@ -398,7 +398,7 @@
       <x:c r="A21" s="2" t="str">
         <x:v>Comma, then "quote"</x:v>
       </x:c>
-      <x:c r="B21" s="2" t="str">
+      <x:c r="B21" s="2" t="n">
         <x:v>726.43</x:v>
       </x:c>
       <x:c r="C21" s="4" t="str">
@@ -412,7 +412,7 @@
       <x:c r="A22" s="2" t="str">
         <x:v>Ends with quote"</x:v>
       </x:c>
-      <x:c r="B22" s="2" t="str">
+      <x:c r="B22" s="2" t="n">
         <x:v>964.42</x:v>
       </x:c>
       <x:c r="C22" s="4" t="str">
@@ -426,7 +426,7 @@
       <x:c r="A23" s="2" t="str">
         <x:v>Text with "quotes"</x:v>
       </x:c>
-      <x:c r="B23" s="2" t="str">
+      <x:c r="B23" s="2" t="n">
         <x:v>162.22</x:v>
       </x:c>
       <x:c r="C23" s="2" t="str">
@@ -440,7 +440,7 @@
       <x:c r="A24" s="2" t="str">
         <x:v>Ends with quote"</x:v>
       </x:c>
-      <x:c r="B24" s="2" t="str">
+      <x:c r="B24" s="2" t="n">
         <x:v>53.69</x:v>
       </x:c>
       <x:c r="C24" s="4" t="str">
@@ -454,7 +454,7 @@
       <x:c r="A25" s="2" t="str">
         <x:v>Mixed, "comma and quotes"</x:v>
       </x:c>
-      <x:c r="B25" s="2" t="str">
+      <x:c r="B25" s="2" t="n">
         <x:v>30.8</x:v>
       </x:c>
       <x:c r="C25" s="2" t="str">
@@ -468,7 +468,7 @@
       <x:c r="A26" s="2" t="str">
         <x:v>"Quoted" at start</x:v>
       </x:c>
-      <x:c r="B26" s="2" t="str">
+      <x:c r="B26" s="2" t="n">
         <x:v>637.93</x:v>
       </x:c>
       <x:c r="C26" s="4" t="str">
@@ -482,7 +482,7 @@
       <x:c r="A27" s="2" t="str">
         <x:v>Plain</x:v>
       </x:c>
-      <x:c r="B27" s="2" t="str">
+      <x:c r="B27" s="2" t="n">
         <x:v>71.98</x:v>
       </x:c>
       <x:c r="C27" s="2" t="str">
@@ -496,7 +496,7 @@
       <x:c r="A28" s="2" t="str">
         <x:v>Value with, comma</x:v>
       </x:c>
-      <x:c r="B28" s="2" t="str">
+      <x:c r="B28" s="2" t="n">
         <x:v>438.87</x:v>
       </x:c>
       <x:c r="C28" s="4" t="str">
@@ -524,7 +524,7 @@
       <x:c r="A30" s="2" t="str">
         <x:v>Hello, world</x:v>
       </x:c>
-      <x:c r="B30" s="2" t="str">
+      <x:c r="B30" s="2" t="n">
         <x:v>269.91</x:v>
       </x:c>
       <x:c r="C30" s="2" t="str">
@@ -538,7 +538,7 @@
       <x:c r="A31" s="2" t="str">
         <x:v>Comma, then "quote"</x:v>
       </x:c>
-      <x:c r="B31" s="2" t="str">
+      <x:c r="B31" s="2" t="n">
         <x:v>341.48</x:v>
       </x:c>
       <x:c r="C31" s="2" t="str">
@@ -566,7 +566,7 @@
       <x:c r="A33" s="2" t="str">
         <x:v>Text with "quotes"</x:v>
       </x:c>
-      <x:c r="B33" s="2" t="str">
+      <x:c r="B33" s="2" t="n">
         <x:v>378.39</x:v>
       </x:c>
       <x:c r="C33" s="4" t="str">
@@ -580,7 +580,7 @@
       <x:c r="A34" s="2" t="str">
         <x:v>Simple text</x:v>
       </x:c>
-      <x:c r="B34" s="2" t="str">
+      <x:c r="B34" s="2" t="n">
         <x:v>760.48</x:v>
       </x:c>
       <x:c r="C34" s="2" t="str">
@@ -594,7 +594,7 @@
       <x:c r="A35" s="2" t="str">
         <x:v>Text with "quotes"</x:v>
       </x:c>
-      <x:c r="B35" s="2" t="str">
+      <x:c r="B35" s="2" t="n">
         <x:v>914.58</x:v>
       </x:c>
       <x:c r="C35" s="2" t="str">
@@ -608,7 +608,7 @@
       <x:c r="A36" s="2" t="str">
         <x:v>Hello, world</x:v>
       </x:c>
-      <x:c r="B36" s="2" t="str">
+      <x:c r="B36" s="2" t="n">
         <x:v>135.21</x:v>
       </x:c>
       <x:c r="C36" s="2" t="str">
@@ -622,7 +622,7 @@
       <x:c r="A37" s="2" t="str">
         <x:v>Value with, comma</x:v>
       </x:c>
-      <x:c r="B37" s="2" t="str">
+      <x:c r="B37" s="2" t="n">
         <x:v>633.32</x:v>
       </x:c>
       <x:c r="C37" s="2" t="str">
@@ -636,7 +636,7 @@
       <x:c r="A38" s="2" t="str">
         <x:v>Simple text</x:v>
       </x:c>
-      <x:c r="B38" s="2" t="str">
+      <x:c r="B38" s="2" t="n">
         <x:v>743.95</x:v>
       </x:c>
       <x:c r="C38" s="2" t="str">
@@ -650,7 +650,7 @@
       <x:c r="A39" s="2" t="str">
         <x:v>Hello, world</x:v>
       </x:c>
-      <x:c r="B39" s="2" t="str">
+      <x:c r="B39" s="2" t="n">
         <x:v>455.23</x:v>
       </x:c>
       <x:c r="C39" s="2" t="str">
@@ -678,7 +678,7 @@
       <x:c r="A41" s="2" t="str">
         <x:v>Comma, then "quote"</x:v>
       </x:c>
-      <x:c r="B41" s="2" t="str">
+      <x:c r="B41" s="2" t="n">
         <x:v>331.61</x:v>
       </x:c>
       <x:c r="C41" s="4" t="str">
@@ -692,7 +692,7 @@
       <x:c r="A42" s="2" t="str">
         <x:v>Comma, then "quote"</x:v>
       </x:c>
-      <x:c r="B42" s="2" t="str">
+      <x:c r="B42" s="2" t="n">
         <x:v>113.73</x:v>
       </x:c>
       <x:c r="C42" s="2" t="str">
@@ -706,7 +706,7 @@
       <x:c r="A43" s="2" t="str">
         <x:v>Plain</x:v>
       </x:c>
-      <x:c r="B43" s="2" t="str">
+      <x:c r="B43" s="2" t="n">
         <x:v>346.68</x:v>
       </x:c>
       <x:c r="C43" s="2" t="str">
@@ -720,7 +720,7 @@
       <x:c r="A44" s="2" t="str">
         <x:v>Mixed, "comma and quotes"</x:v>
       </x:c>
-      <x:c r="B44" s="2" t="str">
+      <x:c r="B44" s="2" t="n">
         <x:v>211.24</x:v>
       </x:c>
       <x:c r="C44" s="2" t="str">
@@ -734,7 +734,7 @@
       <x:c r="A45" s="2" t="str">
         <x:v>"Quoted" at start</x:v>
       </x:c>
-      <x:c r="B45" s="2" t="str">
+      <x:c r="B45" s="2" t="n">
         <x:v>52.59</x:v>
       </x:c>
       <x:c r="C45" s="4" t="str">
@@ -762,7 +762,7 @@
       <x:c r="A47" s="2" t="str">
         <x:v>Another value</x:v>
       </x:c>
-      <x:c r="B47" s="2" t="str">
+      <x:c r="B47" s="2" t="n">
         <x:v>568.98</x:v>
       </x:c>
       <x:c r="C47" s="4" t="str">
@@ -776,7 +776,7 @@
       <x:c r="A48" s="2" t="str">
         <x:v>Value with, comma</x:v>
       </x:c>
-      <x:c r="B48" s="2" t="str">
+      <x:c r="B48" s="2" t="n">
         <x:v>347.73</x:v>
       </x:c>
       <x:c r="C48" s="4" t="str">
@@ -790,7 +790,7 @@
       <x:c r="A49" s="2" t="str">
         <x:v>Text with "quotes"</x:v>
       </x:c>
-      <x:c r="B49" s="2" t="str">
+      <x:c r="B49" s="2" t="n">
         <x:v>788.22</x:v>
       </x:c>
       <x:c r="C49" s="2" t="str">
@@ -804,7 +804,7 @@
       <x:c r="A50" s="2" t="str">
         <x:v>"Quoted" at start</x:v>
       </x:c>
-      <x:c r="B50" s="2" t="str">
+      <x:c r="B50" s="2" t="n">
         <x:v>779.18</x:v>
       </x:c>
       <x:c r="C50" s="2" t="str">
@@ -818,7 +818,7 @@
       <x:c r="A51" s="2" t="str">
         <x:v>Hello, world</x:v>
       </x:c>
-      <x:c r="B51" s="2" t="str">
+      <x:c r="B51" s="2" t="n">
         <x:v>401.86</x:v>
       </x:c>
       <x:c r="C51" s="4" t="str">
@@ -832,7 +832,7 @@
       <x:c r="A52" s="2" t="str">
         <x:v>Text with "quotes"</x:v>
       </x:c>
-      <x:c r="B52" s="2" t="str">
+      <x:c r="B52" s="2" t="n">
         <x:v>613.65</x:v>
       </x:c>
       <x:c r="C52" s="4" t="str">
@@ -846,7 +846,7 @@
       <x:c r="A53" s="2" t="str">
         <x:v>Hello, world</x:v>
       </x:c>
-      <x:c r="B53" s="2" t="str">
+      <x:c r="B53" s="2" t="n">
         <x:v>698.82</x:v>
       </x:c>
       <x:c r="C53" s="4" t="str">
@@ -888,7 +888,7 @@
       <x:c r="A56" s="2" t="str">
         <x:v>Mixed, "comma and quotes"</x:v>
       </x:c>
-      <x:c r="B56" s="2" t="str">
+      <x:c r="B56" s="2" t="n">
         <x:v>822.27</x:v>
       </x:c>
       <x:c r="C56" s="4" t="str">
@@ -902,7 +902,7 @@
       <x:c r="A57" s="2" t="str">
         <x:v>Simple text</x:v>
       </x:c>
-      <x:c r="B57" s="2" t="str">
+      <x:c r="B57" s="2" t="n">
         <x:v>843.21</x:v>
       </x:c>
       <x:c r="C57" s="2" t="str">
@@ -930,7 +930,7 @@
       <x:c r="A59" s="2" t="str">
         <x:v>Hello, world</x:v>
       </x:c>
-      <x:c r="B59" s="2" t="str">
+      <x:c r="B59" s="2" t="n">
         <x:v>78.47</x:v>
       </x:c>
       <x:c r="C59" s="2" t="str">
@@ -958,7 +958,7 @@
       <x:c r="A61" s="2" t="str">
         <x:v>"Quoted" at start</x:v>
       </x:c>
-      <x:c r="B61" s="2" t="str">
+      <x:c r="B61" s="2" t="n">
         <x:v>61.09</x:v>
       </x:c>
       <x:c r="C61" s="2" t="str">
@@ -972,7 +972,7 @@
       <x:c r="A62" s="2" t="str">
         <x:v>Value with, comma</x:v>
       </x:c>
-      <x:c r="B62" s="2" t="str">
+      <x:c r="B62" s="2" t="n">
         <x:v>470.89</x:v>
       </x:c>
       <x:c r="C62" s="2" t="str">
@@ -986,7 +986,7 @@
       <x:c r="A63" s="2" t="str">
         <x:v>Ends with quote"</x:v>
       </x:c>
-      <x:c r="B63" s="2" t="str">
+      <x:c r="B63" s="2" t="n">
         <x:v>273.26</x:v>
       </x:c>
       <x:c r="C63" s="2" t="str">
@@ -1014,7 +1014,7 @@
       <x:c r="A65" s="2" t="str">
         <x:v>Plain</x:v>
       </x:c>
-      <x:c r="B65" s="2" t="str">
+      <x:c r="B65" s="2" t="n">
         <x:v>906.41</x:v>
       </x:c>
       <x:c r="C65" s="2" t="str">
@@ -1028,7 +1028,7 @@
       <x:c r="A66" s="2" t="str">
         <x:v>Simple text</x:v>
       </x:c>
-      <x:c r="B66" s="2" t="str">
+      <x:c r="B66" s="2" t="n">
         <x:v>190.38</x:v>
       </x:c>
       <x:c r="C66" s="4" t="str">
@@ -1042,7 +1042,7 @@
       <x:c r="A67" s="2" t="str">
         <x:v>Ends with quote"</x:v>
       </x:c>
-      <x:c r="B67" s="2" t="str">
+      <x:c r="B67" s="2" t="n">
         <x:v>736.42</x:v>
       </x:c>
       <x:c r="C67" s="2" t="str">
@@ -1070,7 +1070,7 @@
       <x:c r="A69" s="2" t="str">
         <x:v>Hello, world</x:v>
       </x:c>
-      <x:c r="B69" s="2" t="str">
+      <x:c r="B69" s="2" t="n">
         <x:v>892.62</x:v>
       </x:c>
       <x:c r="C69" s="4" t="str">
@@ -1098,7 +1098,7 @@
       <x:c r="A71" s="2" t="str">
         <x:v>Hello, world</x:v>
       </x:c>
-      <x:c r="B71" s="2" t="str">
+      <x:c r="B71" s="2" t="n">
         <x:v>732.55</x:v>
       </x:c>
       <x:c r="C71" s="4" t="str">
@@ -1112,7 +1112,7 @@
       <x:c r="A72" s="2" t="str">
         <x:v>Another value</x:v>
       </x:c>
-      <x:c r="B72" s="2" t="str">
+      <x:c r="B72" s="2" t="n">
         <x:v>292.24</x:v>
       </x:c>
       <x:c r="C72" s="2" t="str">
@@ -1126,7 +1126,7 @@
       <x:c r="A73" s="2" t="str">
         <x:v>"Quoted" at start</x:v>
       </x:c>
-      <x:c r="B73" s="2" t="str">
+      <x:c r="B73" s="2" t="n">
         <x:v>52.97</x:v>
       </x:c>
       <x:c r="C73" s="4" t="str">
@@ -1140,7 +1140,7 @@
       <x:c r="A74" s="2" t="str">
         <x:v>Text with "quotes"</x:v>
       </x:c>
-      <x:c r="B74" s="2" t="str">
+      <x:c r="B74" s="2" t="n">
         <x:v>206.26</x:v>
       </x:c>
       <x:c r="C74" s="2" t="str">
@@ -1154,7 +1154,7 @@
       <x:c r="A75" s="2" t="str">
         <x:v>Text with "quotes"</x:v>
       </x:c>
-      <x:c r="B75" s="2" t="str">
+      <x:c r="B75" s="2" t="n">
         <x:v>766.22</x:v>
       </x:c>
       <x:c r="C75" s="4" t="str">
@@ -1182,7 +1182,7 @@
       <x:c r="A77" s="2" t="str">
         <x:v>Another value</x:v>
       </x:c>
-      <x:c r="B77" s="2" t="str">
+      <x:c r="B77" s="2" t="n">
         <x:v>532.53</x:v>
       </x:c>
       <x:c r="C77" s="4" t="str">
@@ -1196,7 +1196,7 @@
       <x:c r="A78" s="2" t="str">
         <x:v>Plain</x:v>
       </x:c>
-      <x:c r="B78" s="2" t="str">
+      <x:c r="B78" s="2" t="n">
         <x:v>549.51</x:v>
       </x:c>
       <x:c r="C78" s="2" t="str">
@@ -1210,7 +1210,7 @@
       <x:c r="A79" s="2" t="str">
         <x:v>Comma, then "quote"</x:v>
       </x:c>
-      <x:c r="B79" s="2" t="str">
+      <x:c r="B79" s="2" t="n">
         <x:v>941.48</x:v>
       </x:c>
       <x:c r="C79" s="4" t="str">
@@ -1224,7 +1224,7 @@
       <x:c r="A80" s="2" t="str">
         <x:v>"Quoted" at start</x:v>
       </x:c>
-      <x:c r="B80" s="2" t="str">
+      <x:c r="B80" s="2" t="n">
         <x:v>799.79</x:v>
       </x:c>
       <x:c r="C80" s="2" t="str">
@@ -1238,7 +1238,7 @@
       <x:c r="A81" s="2" t="str">
         <x:v>Simple text</x:v>
       </x:c>
-      <x:c r="B81" s="2" t="str">
+      <x:c r="B81" s="2" t="n">
         <x:v>574.31</x:v>
       </x:c>
       <x:c r="C81" s="2" t="str">
@@ -1252,7 +1252,7 @@
       <x:c r="A82" s="2" t="str">
         <x:v>Hello, world</x:v>
       </x:c>
-      <x:c r="B82" s="2" t="str">
+      <x:c r="B82" s="2" t="n">
         <x:v>162.31</x:v>
       </x:c>
       <x:c r="C82" s="4" t="str">
@@ -1266,7 +1266,7 @@
       <x:c r="A83" s="2" t="str">
         <x:v>Mixed, "comma and quotes"</x:v>
       </x:c>
-      <x:c r="B83" s="2" t="str">
+      <x:c r="B83" s="2" t="n">
         <x:v>977.17</x:v>
       </x:c>
       <x:c r="C83" s="4" t="str">
@@ -1280,7 +1280,7 @@
       <x:c r="A84" s="2" t="str">
         <x:v>Mixed, "comma and quotes"</x:v>
       </x:c>
-      <x:c r="B84" s="2" t="str">
+      <x:c r="B84" s="2" t="n">
         <x:v>82.71</x:v>
       </x:c>
       <x:c r="C84" s="4" t="str">
@@ -1294,7 +1294,7 @@
       <x:c r="A85" s="2" t="str">
         <x:v>"Quoted" at start</x:v>
       </x:c>
-      <x:c r="B85" s="2" t="str">
+      <x:c r="B85" s="2" t="n">
         <x:v>659.65</x:v>
       </x:c>
       <x:c r="C85" s="4" t="str">
@@ -1308,7 +1308,7 @@
       <x:c r="A86" s="2" t="str">
         <x:v>Mixed, "comma and quotes"</x:v>
       </x:c>
-      <x:c r="B86" s="2" t="str">
+      <x:c r="B86" s="2" t="n">
         <x:v>733.46</x:v>
       </x:c>
       <x:c r="C86" s="2" t="str">
@@ -1322,7 +1322,7 @@
       <x:c r="A87" s="2" t="str">
         <x:v>Text with "quotes"</x:v>
       </x:c>
-      <x:c r="B87" s="2" t="str">
+      <x:c r="B87" s="2" t="n">
         <x:v>311.14</x:v>
       </x:c>
       <x:c r="C87" s="2" t="str">
@@ -1336,7 +1336,7 @@
       <x:c r="A88" s="2" t="str">
         <x:v>Mixed, "comma and quotes"</x:v>
       </x:c>
-      <x:c r="B88" s="2" t="str">
+      <x:c r="B88" s="2" t="n">
         <x:v>520.34</x:v>
       </x:c>
       <x:c r="C88" s="2" t="str">
@@ -1350,7 +1350,7 @@
       <x:c r="A89" s="2" t="str">
         <x:v>Ends with quote"</x:v>
       </x:c>
-      <x:c r="B89" s="2" t="str">
+      <x:c r="B89" s="2" t="n">
         <x:v>232.68</x:v>
       </x:c>
       <x:c r="C89" s="4" t="str">
@@ -1364,7 +1364,7 @@
       <x:c r="A90" s="2" t="str">
         <x:v>"Quoted" at start</x:v>
       </x:c>
-      <x:c r="B90" s="2" t="str">
+      <x:c r="B90" s="2" t="n">
         <x:v>396.77</x:v>
       </x:c>
       <x:c r="C90" s="4" t="str">
@@ -1378,7 +1378,7 @@
       <x:c r="A91" s="2" t="str">
         <x:v>Value with, comma</x:v>
       </x:c>
-      <x:c r="B91" s="2" t="str">
+      <x:c r="B91" s="2" t="n">
         <x:v>983.83</x:v>
       </x:c>
       <x:c r="C91" s="2" t="str">
@@ -1392,7 +1392,7 @@
       <x:c r="A92" s="2" t="str">
         <x:v>Another value</x:v>
       </x:c>
-      <x:c r="B92" s="2" t="str">
+      <x:c r="B92" s="2" t="n">
         <x:v>147.83</x:v>
       </x:c>
       <x:c r="C92" s="4" t="str">
@@ -1420,7 +1420,7 @@
       <x:c r="A94" s="2" t="str">
         <x:v>Ends with quote"</x:v>
       </x:c>
-      <x:c r="B94" s="2" t="str">
+      <x:c r="B94" s="2" t="n">
         <x:v>525.66</x:v>
       </x:c>
       <x:c r="C94" s="2" t="str">
@@ -1434,7 +1434,7 @@
       <x:c r="A95" s="2" t="str">
         <x:v>Mixed, "comma and quotes"</x:v>
       </x:c>
-      <x:c r="B95" s="2" t="str">
+      <x:c r="B95" s="2" t="n">
         <x:v>396.68</x:v>
       </x:c>
       <x:c r="C95" s="4" t="str">
@@ -1462,7 +1462,7 @@
       <x:c r="A97" s="2" t="str">
         <x:v>Value with, comma</x:v>
       </x:c>
-      <x:c r="B97" s="2" t="str">
+      <x:c r="B97" s="2" t="n">
         <x:v>782.71</x:v>
       </x:c>
       <x:c r="C97" s="4" t="str">
@@ -1490,7 +1490,7 @@
       <x:c r="A99" s="2" t="str">
         <x:v>Simple text</x:v>
       </x:c>
-      <x:c r="B99" s="2" t="str">
+      <x:c r="B99" s="2" t="n">
         <x:v>170.94</x:v>
       </x:c>
       <x:c r="C99" s="4" t="str">
@@ -1504,7 +1504,7 @@
       <x:c r="A100" s="2" t="str">
         <x:v>Simple text</x:v>
       </x:c>
-      <x:c r="B100" s="2" t="str">
+      <x:c r="B100" s="2" t="n">
         <x:v>107.23</x:v>
       </x:c>
       <x:c r="C100" s="4" t="str">
@@ -1518,7 +1518,7 @@
       <x:c r="A101" s="2" t="str">
         <x:v>"Quoted" at start</x:v>
       </x:c>
-      <x:c r="B101" s="2" t="str">
+      <x:c r="B101" s="2" t="n">
         <x:v>937.59</x:v>
       </x:c>
       <x:c r="C101" s="2" t="str">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/72_CsvAdvancedFeatures.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/72_CsvAdvancedFeatures.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV Advanced" sheetId="1" r:id="R1a01a1f9bf0743ea"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV Advanced" sheetId="1" r:id="R8dd8b1a21cb04597"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/72_CsvAdvancedFeatures.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/72_CsvAdvancedFeatures.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV Advanced" sheetId="1" r:id="R8dd8b1a21cb04597"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV Advanced" sheetId="1" r:id="Redd852f5896141a9"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/72_CsvAdvancedFeatures.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/72_CsvAdvancedFeatures.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV Advanced" sheetId="1" r:id="Redd852f5896141a9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV Advanced" sheetId="1" r:id="R29170f37ca684d02"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/72_CsvAdvancedFeatures.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/72_CsvAdvancedFeatures.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV Advanced" sheetId="1" r:id="R29170f37ca684d02"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV Advanced" sheetId="1" r:id="Rc61ca637eaa74842"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/72_CsvAdvancedFeatures.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/72_CsvAdvancedFeatures.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV Advanced" sheetId="1" r:id="Rc61ca637eaa74842"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV Advanced" sheetId="1" r:id="Rbfdcf18daf944226"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/72_CsvAdvancedFeatures.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/72_CsvAdvancedFeatures.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV Advanced" sheetId="1" r:id="Rbfdcf18daf944226"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV Advanced" sheetId="1" r:id="R4961b9bdd70c4195"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/72_CsvAdvancedFeatures.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/72_CsvAdvancedFeatures.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV Advanced" sheetId="1" r:id="R4961b9bdd70c4195"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV Advanced" sheetId="1" r:id="Rbac319f51d6947ed"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/72_CsvAdvancedFeatures.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/72_CsvAdvancedFeatures.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV Advanced" sheetId="1" r:id="Rbac319f51d6947ed"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV Advanced" sheetId="1" r:id="R340602bef7ee4317"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/72_CsvAdvancedFeatures.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/72_CsvAdvancedFeatures.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV Advanced" sheetId="1" r:id="R340602bef7ee4317"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV Advanced" sheetId="1" r:id="R15f03cf1ff444624"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/72_CsvAdvancedFeatures.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/72_CsvAdvancedFeatures.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV Advanced" sheetId="1" r:id="R15f03cf1ff444624"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV Advanced" sheetId="1" r:id="Rdb7a48365ea34eae"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/72_CsvAdvancedFeatures.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/72_CsvAdvancedFeatures.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV Advanced" sheetId="1" r:id="Rdb7a48365ea34eae"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV Advanced" sheetId="1" r:id="Rd8b34fa42a704bc0"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/72_CsvAdvancedFeatures.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/72_CsvAdvancedFeatures.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV Advanced" sheetId="1" r:id="Rd8b34fa42a704bc0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV Advanced" sheetId="1" r:id="R59d431cc76144694"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/72_CsvAdvancedFeatures.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/72_CsvAdvancedFeatures.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV Advanced" sheetId="1" r:id="R59d431cc76144694"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV Advanced" sheetId="1" r:id="Rc75a9352ef0d4748"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/72_CsvAdvancedFeatures.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/72_CsvAdvancedFeatures.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV Advanced" sheetId="1" r:id="Rc75a9352ef0d4748"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV Advanced" sheetId="1" r:id="Re5210cbe3e1b47c2"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
